--- a/biology/Zoologie/Cymbulia/Cymbulia.xlsx
+++ b/biology/Zoologie/Cymbulia/Cymbulia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cymbulia est un genre de mollusques gastéropodes nectoniques de la famille des Cymbuliidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cymbulia a été créé en 1810 par les naturalistes français François Péron (1775-1810) et Charles Alexandre Lesueur (1778-1846)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cymbulia a été créé en 1810 par les naturalistes français François Péron (1775-1810) et Charles Alexandre Lesueur (1778-1846).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La coquille, présente à l'état larvaire, est perdue secondairement et remplacée par une pseudo-coquille, la « pseudoconque », de nature cartilagineuse, transparente. Cette pseudoconque présente une adaptation au mode de vie planctonique, car, d'une part, sa densité plus faible confère une meilleure flottabilité à l'animal, et, d'autre part, la transparence constitue une forme de camouflage en milieu marin ouvert.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (24 mars 2022)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (24 mars 2022) :
 Cymbulia parvidentata P. Pelseneer, 1888
 Cymbulia peronii Lamarck, 1819
 Cymbulia sibogae Tesch, 1903
